--- a/Optimal_Decarbonisation_User_Interface.xlsx
+++ b/Optimal_Decarbonisation_User_Interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive - University of Nottingham Malaysia\The University of Nottingham\BC COP26 Trilateral Research Initiative\BCCOP26TrilateralProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10682CAA-578B-45FA-9DE9-71DEA9C8032E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE383E3-7985-4343-A572-0DB54E054469}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,15 +39,9 @@
     <t>LB</t>
   </si>
   <si>
-    <t>Lower bound for energy availability for each plant</t>
-  </si>
-  <si>
     <t>UB</t>
   </si>
   <si>
-    <t>Upper bound for energy availability for each plant</t>
-  </si>
-  <si>
     <t>CI</t>
   </si>
   <si>
@@ -409,6 +403,12 @@
   </si>
   <si>
     <t>TABLE 3: NET PARAMETERS</t>
+  </si>
+  <si>
+    <t>Lower bound for energy output for each plant</t>
+  </si>
+  <si>
+    <t>Upper bound for energy output for each plant</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,6 +586,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,7 +923,7 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,11 +932,11 @@
     <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
     <col min="4" max="9" width="19.85546875" style="1" customWidth="1"/>
-    <col min="10" max="30" width="9.140625" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="34" width="9.140625" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -949,12 +949,12 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -964,228 +964,228 @@
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
     </row>
-    <row r="5" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
     </row>
-    <row r="6" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
     </row>
-    <row r="10" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
     </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="14" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="18" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="19" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="18"/>
     </row>
-    <row r="21" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="18"/>
     </row>
-    <row r="22" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="26" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+    <row r="27" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+    <row r="28" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="7" t="s">
+    </row>
+    <row r="29" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="B30" s="18"/>
+    </row>
+    <row r="31" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="B31" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="18"/>
-    </row>
-    <row r="31" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    </row>
+    <row r="32" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+    <row r="33" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B33" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -1196,62 +1196,62 @@
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="I37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
@@ -1280,9 +1280,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="6">
         <v>40</v>
@@ -1309,9 +1309,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
@@ -1338,9 +1338,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" s="6">
         <v>0</v>
@@ -1367,9 +1367,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B42" s="6">
         <v>0</v>
@@ -1396,9 +1396,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -1425,9 +1425,9 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" s="6">
         <v>0</v>
@@ -1454,9 +1454,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B45" s="6">
         <v>155</v>
@@ -1483,9 +1483,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B46" s="6">
         <v>0</v>
@@ -1512,9 +1512,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" s="6">
         <v>0</v>
@@ -1542,217 +1542,217 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B51" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="13" t="s">
+      <c r="D53" s="12"/>
+      <c r="E53" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="13" t="s">
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13" t="s">
+      <c r="D54" s="12"/>
+      <c r="E54" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13" t="s">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13" t="s">
+      <c r="D55" s="12"/>
+      <c r="E55" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13" t="s">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13" t="s">
+      <c r="D56" s="12"/>
+      <c r="E56" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13" t="s">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13" t="s">
+      <c r="D57" s="12"/>
+      <c r="E57" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13" t="s">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13" t="s">
+      <c r="D58" s="12"/>
+      <c r="E58" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13" t="s">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13" t="s">
+      <c r="D59" s="12"/>
+      <c r="E59" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13" t="s">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13" t="s">
+      <c r="D60" s="12"/>
+      <c r="E60" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13" t="s">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13" t="s">
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13" t="s">
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13" t="s">
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13" t="s">
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-    </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1812,119 +1812,119 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="21.5703125" style="10" customWidth="1"/>
+    <col min="1" max="9" width="21.5703125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="13"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="5"/>
       <c r="G2" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="13"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="7"/>
       <c r="G3" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="13"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="4"/>
       <c r="G4" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>100</v>
+      <c r="A5" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -1933,22 +1933,22 @@
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2012,13 +2012,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2048,269 +2048,269 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="21.5703125" style="10" customWidth="1"/>
+    <col min="1" max="14" width="21.5703125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+        <v>105</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="13"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="5"/>
       <c r="G2" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="21"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="13"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="7"/>
       <c r="G3" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="21"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="13"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="4"/>
       <c r="G4" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="21"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -2326,40 +2326,40 @@
     </row>
     <row r="16" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="L16" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2477,18 +2477,18 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Optimal_Decarbonisation_User_Interface.xlsx
+++ b/Optimal_Decarbonisation_User_Interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive - University of Nottingham Malaysia\The University of Nottingham\BC COP26 Trilateral Research Initiative\BCCOP26TrilateralProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE383E3-7985-4343-A572-0DB54E054469}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07D0C81-58AF-4FB4-B682-43AF91337403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,19 @@
     <sheet name="PLANT_DATA" sheetId="1" r:id="rId1"/>
     <sheet name="EP_DATA" sheetId="2" r:id="rId2"/>
     <sheet name="NET_DATA" sheetId="3" r:id="rId3"/>
+    <sheet name="MB1" sheetId="4" r:id="rId4"/>
+    <sheet name="MB2" sheetId="5" r:id="rId5"/>
+    <sheet name="MB3" sheetId="6" r:id="rId6"/>
+    <sheet name="ME1" sheetId="7" r:id="rId7"/>
+    <sheet name="ME2" sheetId="8" r:id="rId8"/>
+    <sheet name="ME3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="149">
   <si>
     <t>PLANT DATA</t>
   </si>
@@ -39,9 +45,15 @@
     <t>LB</t>
   </si>
   <si>
+    <t>Lower bound for energy output for each plant</t>
+  </si>
+  <si>
     <t>UB</t>
   </si>
   <si>
+    <t>Upper bound for energy output for each plant</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
@@ -135,72 +147,81 @@
     <t>Mt/y</t>
   </si>
   <si>
+    <t>mil USD/y</t>
+  </si>
+  <si>
+    <t>Optimisation Objective</t>
+  </si>
+  <si>
+    <t>min_budget</t>
+  </si>
+  <si>
+    <t>This objective minimises the total budget allocation, subject to the satisfaction of the demand and emissions constraints for each period</t>
+  </si>
+  <si>
+    <t>min_emission</t>
+  </si>
+  <si>
+    <t>This objective minimises the total CO2 emissions, subject to the satisfaction of the demand and budget allocation constraints for each period</t>
+  </si>
+  <si>
+    <t>Optimisation Choice</t>
+  </si>
+  <si>
+    <t>TABLE 1: PLANT ENERGY PLANNING PARAMETERS</t>
+  </si>
+  <si>
+    <t>Plant_1</t>
+  </si>
+  <si>
+    <t>Plant_2</t>
+  </si>
+  <si>
+    <t>Plant_3</t>
+  </si>
+  <si>
+    <t>Plant_4</t>
+  </si>
+  <si>
+    <t>Plant_5</t>
+  </si>
+  <si>
+    <t>Plant_6</t>
+  </si>
+  <si>
+    <t>Plant_7</t>
+  </si>
+  <si>
+    <t>Plant_8</t>
+  </si>
+  <si>
+    <t>REN</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>FX_Cost_CCS_1</t>
+  </si>
+  <si>
+    <t>FX_Cost_CCS_2</t>
+  </si>
+  <si>
+    <t>Gt/TWh</t>
+  </si>
+  <si>
+    <t>Gt/y</t>
+  </si>
+  <si>
     <t>mil RM/y</t>
   </si>
   <si>
-    <t>Optimisation Objective</t>
-  </si>
-  <si>
-    <t>min_budget</t>
-  </si>
-  <si>
-    <t>This objective minimises the total budget allocation, subject to the satisfaction of the demand and emissions constraints for each period</t>
-  </si>
-  <si>
-    <t>min_emission</t>
-  </si>
-  <si>
-    <t>This objective minimises the total CO2 emissions, subject to the satisfaction of the demand and budget allocation constraints for each period</t>
-  </si>
-  <si>
-    <t>Optimisation Choice</t>
-  </si>
-  <si>
-    <t>TABLE 1: PLANT ENERGY PLANNING PARAMETERS</t>
-  </si>
-  <si>
-    <t>Plant_1</t>
-  </si>
-  <si>
-    <t>Plant_2</t>
-  </si>
-  <si>
-    <t>Plant_3</t>
-  </si>
-  <si>
-    <t>Plant_4</t>
-  </si>
-  <si>
-    <t>Plant_5</t>
-  </si>
-  <si>
-    <t>Plant_6</t>
-  </si>
-  <si>
-    <t>Plant_7</t>
-  </si>
-  <si>
-    <t>Plant_8</t>
-  </si>
-  <si>
-    <t>REN</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>COAL</t>
-  </si>
-  <si>
-    <t>Gt/TWh</t>
-  </si>
-  <si>
-    <t>Gt/y</t>
-  </si>
-  <si>
     <t>GWh/y</t>
   </si>
   <si>
@@ -219,9 +240,6 @@
     <t>kt/y</t>
   </si>
   <si>
-    <t>mil USD/y</t>
-  </si>
-  <si>
     <t>kWh/y</t>
   </si>
   <si>
@@ -405,17 +423,68 @@
     <t>TABLE 3: NET PARAMETERS</t>
   </si>
   <si>
-    <t>Lower bound for energy output for each plant</t>
-  </si>
-  <si>
-    <t>Upper bound for energy output for each plant</t>
+    <t>CCS_1 CI</t>
+  </si>
+  <si>
+    <t>CCS_2 CI</t>
+  </si>
+  <si>
+    <t>CCS_1 Selection</t>
+  </si>
+  <si>
+    <t>CCS_2 Selection</t>
+  </si>
+  <si>
+    <t>CCS_1 Ret</t>
+  </si>
+  <si>
+    <t>CCS_2 Ret</t>
+  </si>
+  <si>
+    <t>Net Energy wo CCS</t>
+  </si>
+  <si>
+    <t>Net Energy w CCS</t>
+  </si>
+  <si>
+    <t>Net Energy</t>
+  </si>
+  <si>
+    <t>Carbon Load</t>
+  </si>
+  <si>
+    <t>EP_NET_1</t>
+  </si>
+  <si>
+    <t>EP_NET_2</t>
+  </si>
+  <si>
+    <t>EP_NET_3</t>
+  </si>
+  <si>
+    <t>EC_NET_1</t>
+  </si>
+  <si>
+    <t>EC_NET_2</t>
+  </si>
+  <si>
+    <t>EC_NET_3</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +499,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -470,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -541,11 +629,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -580,6 +699,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,18 +709,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -606,8 +734,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -920,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,326 +1065,333 @@
     <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
     <col min="4" max="9" width="19.85546875" style="1" customWidth="1"/>
-    <col min="10" max="34" width="9.140625" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="42" width="9.140625" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="F3" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="B28" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="18"/>
-    </row>
-    <row r="31" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="29" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="19"/>
+    </row>
+    <row r="31" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B31" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
@@ -1280,9 +1420,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" s="6">
         <v>40</v>
@@ -1309,9 +1449,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
@@ -1338,9 +1478,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B41" s="6">
         <v>0</v>
@@ -1367,9 +1507,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B42" s="6">
         <v>0</v>
@@ -1396,9 +1536,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -1425,9 +1565,9 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B44" s="6">
         <v>0</v>
@@ -1454,309 +1594,365 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="6">
+        <v>38</v>
+      </c>
+      <c r="C45" s="6">
+        <v>25</v>
+      </c>
+      <c r="D45" s="6">
+        <v>25</v>
+      </c>
+      <c r="E45" s="6">
+        <v>25</v>
+      </c>
+      <c r="F45" s="6">
+        <v>49</v>
+      </c>
+      <c r="G45" s="6">
+        <v>12</v>
+      </c>
+      <c r="H45" s="6">
+        <v>12</v>
+      </c>
+      <c r="I45" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0</v>
+      </c>
+      <c r="C46" s="6">
+        <v>34</v>
+      </c>
+      <c r="D46" s="6">
+        <v>34</v>
+      </c>
+      <c r="E46" s="6">
+        <v>34</v>
+      </c>
+      <c r="F46" s="6">
+        <v>68</v>
+      </c>
+      <c r="G46" s="6">
+        <v>20</v>
+      </c>
+      <c r="H46" s="6">
+        <v>20</v>
+      </c>
+      <c r="I46" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="6">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6">
+        <v>29</v>
+      </c>
+      <c r="D47" s="6">
+        <v>29</v>
+      </c>
+      <c r="E47" s="6">
+        <v>29</v>
+      </c>
+      <c r="F47" s="6">
+        <v>59</v>
+      </c>
+      <c r="G47" s="6">
         <v>16</v>
       </c>
-      <c r="B45" s="6">
-        <v>155</v>
-      </c>
-      <c r="C45" s="6">
-        <v>104</v>
-      </c>
-      <c r="D45" s="6">
-        <v>104</v>
-      </c>
-      <c r="E45" s="6">
-        <v>104</v>
-      </c>
-      <c r="F45" s="6">
-        <v>202</v>
-      </c>
-      <c r="G45" s="6">
-        <v>51</v>
-      </c>
-      <c r="H45" s="6">
-        <v>51</v>
-      </c>
-      <c r="I45" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="6">
-        <v>0</v>
-      </c>
-      <c r="C46" s="6">
-        <v>141</v>
-      </c>
-      <c r="D46" s="6">
-        <v>141</v>
-      </c>
-      <c r="E46" s="6">
-        <v>141</v>
-      </c>
-      <c r="F46" s="6">
-        <v>280</v>
-      </c>
-      <c r="G46" s="6">
+      <c r="H47" s="6">
+        <v>16</v>
+      </c>
+      <c r="I47" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="6">
+        <v>200</v>
+      </c>
+      <c r="C48" s="6">
+        <v>200</v>
+      </c>
+      <c r="D48" s="6">
+        <v>200</v>
+      </c>
+      <c r="E48" s="6">
+        <v>200</v>
+      </c>
+      <c r="F48" s="6">
+        <v>200</v>
+      </c>
+      <c r="G48" s="6">
+        <v>200</v>
+      </c>
+      <c r="H48" s="6">
+        <v>200</v>
+      </c>
+      <c r="I48" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="6">
+        <v>200</v>
+      </c>
+      <c r="C49" s="6">
+        <v>200</v>
+      </c>
+      <c r="D49" s="6">
+        <v>200</v>
+      </c>
+      <c r="E49" s="6">
+        <v>200</v>
+      </c>
+      <c r="F49" s="6">
+        <v>200</v>
+      </c>
+      <c r="G49" s="6">
+        <v>200</v>
+      </c>
+      <c r="H49" s="6">
+        <v>200</v>
+      </c>
+      <c r="I49" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H46" s="6">
-        <v>82</v>
-      </c>
-      <c r="I46" s="6">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="6">
-        <v>0</v>
-      </c>
-      <c r="C47" s="6">
-        <v>120</v>
-      </c>
-      <c r="D47" s="6">
-        <v>120</v>
-      </c>
-      <c r="E47" s="6">
-        <v>120</v>
-      </c>
-      <c r="F47" s="6">
-        <v>240</v>
-      </c>
-      <c r="G47" s="6">
-        <v>66</v>
-      </c>
-      <c r="H47" s="6">
-        <v>66</v>
-      </c>
-      <c r="I47" s="6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12" t="s">
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12" t="s">
+      <c r="D62" s="13"/>
+      <c r="E62" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12" t="s">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12" t="s">
+      <c r="D63" s="13"/>
+      <c r="E63" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12" t="s">
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12" t="s">
+      <c r="D64" s="13"/>
+      <c r="E64" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-    </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13" t="s">
         <v>90</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B20:C20"/>
@@ -1770,29 +1966,25 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Optimisation Choice" prompt="Please select your choice of optimisation" sqref="B33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$31:$A$32</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$B$49:$B$52</formula1>
+      <formula1>$B$53:$B$56</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B26" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>$C$49:$C$64</formula1>
+      <formula1>$C$53:$C$68</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B27" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>$D$49:$D$52</formula1>
+      <formula1>$D$53:$D$56</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B28" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>$E$49:$E$60</formula1>
+      <formula1>$E$53:$E$64</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B37:I37" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>$A$49:$A$52</formula1>
+      <formula1>$A$53:$A$56</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1806,149 +1998,149 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="21.5703125" style="14" customWidth="1"/>
+    <col min="1" max="9" width="21.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="12"/>
+        <v>96</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="21"/>
+      <c r="G2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="21"/>
+      <c r="G3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="21"/>
+      <c r="G4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+        <v>102</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+        <v>104</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1962,13 +2154,13 @@
         <v>15</v>
       </c>
       <c r="D11" s="6">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>155</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1982,13 +2174,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="6">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="6">
-        <v>155</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2002,23 +2194,23 @@
         <v>3</v>
       </c>
       <c r="D13" s="6">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>155</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2047,453 +2239,471 @@
   </sheetPr>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="21.5703125" style="14" customWidth="1"/>
+    <col min="1" max="14" width="21.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="12"/>
+        <v>110</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="12"/>
+        <v>112</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="C16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="D16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="E16" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="F16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="G16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="H16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="I16" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="J16" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="K16" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-    </row>
-    <row r="16" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="L16" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6">
         <v>-0.8</v>
       </c>
-      <c r="B17" s="6">
+      <c r="C17" s="6">
         <v>-0.6</v>
       </c>
-      <c r="C17" s="6">
+      <c r="D17" s="6">
         <v>-0.4</v>
       </c>
-      <c r="D17" s="6">
-        <v>175</v>
-      </c>
       <c r="E17" s="6">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="F17" s="6">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="G17" s="6">
+        <v>37</v>
+      </c>
+      <c r="H17" s="6">
         <v>-0.6</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>-0.4</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>-0.2</v>
       </c>
-      <c r="J17" s="6">
-        <v>200</v>
-      </c>
       <c r="K17" s="6">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="L17" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="M17" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6">
         <v>-0.8</v>
       </c>
-      <c r="B18" s="6">
+      <c r="C18" s="6">
         <v>-0.6</v>
       </c>
-      <c r="C18" s="6">
+      <c r="D18" s="6">
         <v>-0.4</v>
       </c>
-      <c r="D18" s="6">
-        <v>175</v>
-      </c>
       <c r="E18" s="6">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="F18" s="6">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="G18" s="6">
+        <v>37</v>
+      </c>
+      <c r="H18" s="6">
         <v>-0.6</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>-0.4</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>-0.2</v>
       </c>
-      <c r="J18" s="6">
-        <v>200</v>
-      </c>
       <c r="K18" s="6">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="L18" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="M18" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6">
         <v>-0.8</v>
       </c>
-      <c r="B19" s="6">
+      <c r="C19" s="6">
         <v>-0.6</v>
       </c>
-      <c r="C19" s="6">
+      <c r="D19" s="6">
         <v>-0.4</v>
       </c>
-      <c r="D19" s="6">
-        <v>175</v>
-      </c>
       <c r="E19" s="6">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="F19" s="6">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="G19" s="6">
+        <v>37</v>
+      </c>
+      <c r="H19" s="6">
         <v>-0.6</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>-0.4</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <v>-0.2</v>
       </c>
-      <c r="J19" s="6">
-        <v>200</v>
-      </c>
       <c r="K19" s="6">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="L19" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>37</v>
+      </c>
+      <c r="M19" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
@@ -2504,14 +2714,3146 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="16.42578125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="13">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>10</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13">
+        <v>10</v>
+      </c>
+      <c r="N2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.373</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="13">
+        <v>12.77</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>12.77</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <v>12.77</v>
+      </c>
+      <c r="N7" s="13">
+        <v>12.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="13">
+        <v>17.23</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>17.23</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>14.65</v>
+      </c>
+      <c r="M8" s="13">
+        <v>14.65</v>
+      </c>
+      <c r="N8" s="13">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="13">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>20</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>17</v>
+      </c>
+      <c r="M9" s="13">
+        <v>17</v>
+      </c>
+      <c r="N9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11" s="13">
+        <v>5.59</v>
+      </c>
+      <c r="N11" s="13">
+        <v>-3.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" s="13">
+        <v>15</v>
+      </c>
+      <c r="O17" s="17">
+        <v>1789.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="16.42578125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="13">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>10</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13">
+        <v>10</v>
+      </c>
+      <c r="N2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="13">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>5</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>5</v>
+      </c>
+      <c r="N4" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.373</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="13">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>20</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>17</v>
+      </c>
+      <c r="M7" s="13">
+        <v>17</v>
+      </c>
+      <c r="N7" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="13">
+        <v>20</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>17.98</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>2.02</v>
+      </c>
+      <c r="L8" s="13">
+        <v>15.28</v>
+      </c>
+      <c r="M8" s="13">
+        <v>17.3</v>
+      </c>
+      <c r="N8" s="13">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="13">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>20</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>17</v>
+      </c>
+      <c r="M9" s="13">
+        <v>17</v>
+      </c>
+      <c r="N9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11" s="13">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N11" s="13">
+        <v>-5.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" s="13">
+        <v>8</v>
+      </c>
+      <c r="O17" s="17">
+        <v>2462.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="16.42578125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="13">
+        <v>27.6</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>27.6</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13">
+        <v>27.6</v>
+      </c>
+      <c r="N2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="N5" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.373</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="13">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>20</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>17</v>
+      </c>
+      <c r="M7" s="13">
+        <v>17</v>
+      </c>
+      <c r="N7" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="13">
+        <v>20</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>20</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>17</v>
+      </c>
+      <c r="M8" s="13">
+        <v>17</v>
+      </c>
+      <c r="N8" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="13">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>20</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>17</v>
+      </c>
+      <c r="M9" s="13">
+        <v>17</v>
+      </c>
+      <c r="N9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="13">
+        <v>9</v>
+      </c>
+      <c r="N10" s="13">
+        <v>-7.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" s="13">
+        <v>3</v>
+      </c>
+      <c r="O17" s="17">
+        <v>3115.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="16.42578125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="N2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.373</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="13">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>20</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <v>20</v>
+      </c>
+      <c r="N7" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="N8" s="13">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="13">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>20</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>17</v>
+      </c>
+      <c r="M9" s="13">
+        <v>17</v>
+      </c>
+      <c r="N9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="13">
+        <v>3</v>
+      </c>
+      <c r="N10" s="13">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" s="13">
+        <v>27.1</v>
+      </c>
+      <c r="O17" s="28">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="16.42578125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="13">
+        <v>25.81</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>25.81</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13">
+        <v>25.81</v>
+      </c>
+      <c r="N2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.373</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="13">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>20</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <v>20</v>
+      </c>
+      <c r="N7" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="13">
+        <v>9.19</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>9.19</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <v>9.19</v>
+      </c>
+      <c r="N8" s="13">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="13">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>20</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>17</v>
+      </c>
+      <c r="M9" s="13">
+        <v>17</v>
+      </c>
+      <c r="N9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="13">
+        <v>3</v>
+      </c>
+      <c r="N10" s="13">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" s="13">
+        <v>29.79</v>
+      </c>
+      <c r="O17" s="28">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="16.5703125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="13">
+        <v>13.23</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>13.23</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13">
+        <v>13.23</v>
+      </c>
+      <c r="N2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="13">
+        <v>16.77</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>16.77</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>16.77</v>
+      </c>
+      <c r="N3" s="13">
+        <v>8.3800000000000008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.373</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="13">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>20</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>17</v>
+      </c>
+      <c r="M7" s="13">
+        <v>17</v>
+      </c>
+      <c r="N7" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="13">
+        <v>20</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>20</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <v>20</v>
+      </c>
+      <c r="N8" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="13">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>20</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>17</v>
+      </c>
+      <c r="M9" s="13">
+        <v>17</v>
+      </c>
+      <c r="N9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="13">
+        <v>6</v>
+      </c>
+      <c r="N10" s="13">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" s="13">
+        <v>29.58</v>
+      </c>
+      <c r="O17" s="28">
+        <v>2500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Optimal_Decarbonisation_User_Interface.xlsx
+++ b/Optimal_Decarbonisation_User_Interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive - University of Nottingham Malaysia\The University of Nottingham\BC COP26 Trilateral Research Initiative\BCCOP26 Software Framework\Malaysia Base Case_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18CD722-01FF-4C76-BBB7-5A725F8C5F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637C0071-292A-48D5-8BCD-006810300A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" state="hidden" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="PLANT_DATA" sheetId="3" r:id="rId3"/>
     <sheet name="ENERGY_PLANNING_DATA" sheetId="4" r:id="rId4"/>
     <sheet name="FUEL_COST_DATA" sheetId="5" r:id="rId5"/>
-    <sheet name="COMPENSATORY_CI_DATA" sheetId="6" r:id="rId6"/>
-    <sheet name="COMPENSATORY_COST_DATA" sheetId="7" r:id="rId7"/>
+    <sheet name="RENEWABLE_CI_DATA" sheetId="6" r:id="rId6"/>
+    <sheet name="RENEWABLE_COST_DATA" sheetId="7" r:id="rId7"/>
     <sheet name="CAPEX_DATA_1" sheetId="8" r:id="rId8"/>
     <sheet name="CAPEX_DATA_2" sheetId="9" r:id="rId9"/>
     <sheet name="ALT_SOLID_CI" sheetId="10" r:id="rId10"/>
@@ -2809,8 +2809,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="26" style="44" customWidth="1"/>
-    <col min="6" max="68" width="9.140625" style="44" customWidth="1"/>
-    <col min="69" max="16384" width="9.140625" style="44"/>
+    <col min="6" max="69" width="9.140625" style="44" customWidth="1"/>
+    <col min="70" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2962,8 +2962,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="25.7109375" style="44" customWidth="1"/>
-    <col min="4" max="68" width="9.140625" style="44" customWidth="1"/>
-    <col min="69" max="16384" width="9.140625" style="44"/>
+    <col min="4" max="69" width="9.140625" style="44" customWidth="1"/>
+    <col min="70" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3115,8 +3115,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="25.5703125" style="44" customWidth="1"/>
-    <col min="4" max="68" width="9.140625" style="44" customWidth="1"/>
-    <col min="69" max="16384" width="9.140625" style="44"/>
+    <col min="4" max="69" width="9.140625" style="44" customWidth="1"/>
+    <col min="70" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3268,8 +3268,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="25.7109375" style="44" customWidth="1"/>
-    <col min="4" max="68" width="9.140625" style="44" customWidth="1"/>
-    <col min="69" max="16384" width="9.140625" style="44"/>
+    <col min="4" max="69" width="9.140625" style="44" customWidth="1"/>
+    <col min="70" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3423,8 +3423,8 @@
     <col min="1" max="3" width="21.5703125" style="44" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" style="44" customWidth="1"/>
     <col min="5" max="9" width="21.5703125" style="44" customWidth="1"/>
-    <col min="10" max="79" width="9.140625" style="44" customWidth="1"/>
-    <col min="80" max="16384" width="9.140625" style="44"/>
+    <col min="10" max="80" width="9.140625" style="44" customWidth="1"/>
+    <col min="81" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4193,8 +4193,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="14" width="21.5703125" style="44" customWidth="1"/>
-    <col min="15" max="86" width="9.140625" style="44" customWidth="1"/>
-    <col min="87" max="16384" width="9.140625" style="44"/>
+    <col min="15" max="87" width="9.140625" style="44" customWidth="1"/>
+    <col min="88" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4553,7 +4553,7 @@
   </sheetPr>
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -4561,8 +4561,8 @@
   <cols>
     <col min="1" max="13" width="21.5703125" style="44" customWidth="1"/>
     <col min="14" max="18" width="21.42578125" style="44" customWidth="1"/>
-    <col min="19" max="86" width="9.140625" style="44" customWidth="1"/>
-    <col min="87" max="16384" width="9.140625" style="44"/>
+    <col min="19" max="87" width="9.140625" style="44" customWidth="1"/>
+    <col min="88" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5270,12 +5270,6 @@
     <row r="28" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
@@ -5283,6 +5277,12 @@
     <mergeCell ref="A19:R19"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B21:R26" xr:uid="{00000000-0002-0000-1000-000000000000}">
@@ -5828,8 +5828,8 @@
     <col min="5" max="9" width="19.85546875" style="1" customWidth="1"/>
     <col min="10" max="45" width="19.7109375" style="1" customWidth="1"/>
     <col min="46" max="77" width="20" style="1" customWidth="1"/>
-    <col min="78" max="120" width="9.140625" style="1" customWidth="1"/>
-    <col min="121" max="16384" width="9.140625" style="1"/>
+    <col min="78" max="121" width="9.140625" style="1" customWidth="1"/>
+    <col min="122" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8678,15 +8678,15 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D14"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="25.5703125" style="43" customWidth="1"/>
-    <col min="11" max="40" width="9.140625" style="43" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="43"/>
+    <col min="11" max="41" width="9.140625" style="43" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8878,8 +8878,8 @@
     <col min="1" max="3" width="21.5703125" style="44" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" style="44" customWidth="1"/>
     <col min="5" max="9" width="21.5703125" style="44" customWidth="1"/>
-    <col min="10" max="74" width="9.140625" style="44" customWidth="1"/>
-    <col min="75" max="16384" width="9.140625" style="44"/>
+    <col min="10" max="75" width="9.140625" style="44" customWidth="1"/>
+    <col min="76" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9240,6 +9240,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H2:I2"/>
@@ -9248,11 +9253,6 @@
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -9275,8 +9275,8 @@
     <col min="1" max="3" width="21.5703125" style="44" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" style="44" customWidth="1"/>
     <col min="5" max="6" width="21.5703125" style="44" customWidth="1"/>
-    <col min="7" max="36" width="9.140625" style="44" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="44"/>
+    <col min="7" max="37" width="9.140625" style="44" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9542,14 +9542,14 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="25.7109375" style="44" customWidth="1"/>
-    <col min="7" max="36" width="9.140625" style="44" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="44"/>
+    <col min="7" max="37" width="9.140625" style="44" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9824,8 +9824,8 @@
     <col min="4" max="4" width="28.28515625" style="44" customWidth="1"/>
     <col min="5" max="9" width="21.5703125" style="44" customWidth="1"/>
     <col min="10" max="15" width="21.7109375" style="44" customWidth="1"/>
-    <col min="16" max="75" width="9.140625" style="44" customWidth="1"/>
-    <col min="76" max="16384" width="9.140625" style="44"/>
+    <col min="16" max="76" width="9.140625" style="44" customWidth="1"/>
+    <col min="77" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10427,17 +10427,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="A20:O20"/>
@@ -10446,6 +10435,17 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -10469,8 +10469,8 @@
     <col min="4" max="4" width="28.28515625" style="44" customWidth="1"/>
     <col min="5" max="9" width="21.5703125" style="44" customWidth="1"/>
     <col min="10" max="15" width="21.28515625" style="44" customWidth="1"/>
-    <col min="16" max="75" width="9.140625" style="44" customWidth="1"/>
-    <col min="76" max="16384" width="9.140625" style="44"/>
+    <col min="16" max="76" width="9.140625" style="44" customWidth="1"/>
+    <col min="77" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11072,17 +11072,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="A20:O20"/>
@@ -11091,6 +11080,17 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
